--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8B9054-9D31-6147-BFE4-D7189E1A11D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E08751-60E3-7B44-8618-8B9D1DD53149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="226">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -432,6 +432,285 @@
   </si>
   <si>
     <t>FREQ_01</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>EPOCH</t>
+  </si>
+  <si>
+    <t>The name of the EPOCH.</t>
+  </si>
+  <si>
+    <t>C99079</t>
+  </si>
+  <si>
+    <t>C102255</t>
+  </si>
+  <si>
+    <t>BLINDED TREATMENT</t>
+  </si>
+  <si>
+    <t>A period in a clinical study during which subjects receive blinded therapeutic treatment.</t>
+  </si>
+  <si>
+    <t>Blinded Treatment</t>
+  </si>
+  <si>
+    <t>C99158</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>A period in a clinical study during which information about the health status of an individual is obtained after study procedures and treatments have concluded.</t>
+  </si>
+  <si>
+    <t>Follow-up</t>
+  </si>
+  <si>
+    <t>C16032</t>
+  </si>
+  <si>
+    <t>LONG-TERM FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>A period in a clinical study during which information about the health status of an individual is obtained long after study procedures and treatments have concluded.</t>
+  </si>
+  <si>
+    <t>Long-term Follow-up</t>
+  </si>
+  <si>
+    <t>C102256</t>
+  </si>
+  <si>
+    <t>OPEN LABEL TREATMENT</t>
+  </si>
+  <si>
+    <t>A period in a clinical study during which subjects receive open label therapeutic treatment.</t>
+  </si>
+  <si>
+    <t>Open Label Treatment</t>
+  </si>
+  <si>
+    <t>C98779</t>
+  </si>
+  <si>
+    <t>RUN-IN</t>
+  </si>
+  <si>
+    <t>A period in a clinical study that occurs before the commencement of the primary clinical study investigation, during which subjects may be assessed for suitability in the clinical study, withdrawn from existing therapy, trained in study methodology or evaluated for any other protocol-specified reason.</t>
+  </si>
+  <si>
+    <t>Run-In</t>
+  </si>
+  <si>
+    <t>C48262</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>A period in a clinical study during which subjects are evaluated for participation in the study.</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>C101526</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>A period in a clinical study during which subjects receive therapeutic treatment.</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>C42872</t>
+  </si>
+  <si>
+    <t>WASHOUT</t>
+  </si>
+  <si>
+    <t>A period of time during a clinical study when a participant is taken off of a study drug or other medication in order to eliminate the effects of the treatment.</t>
+  </si>
+  <si>
+    <t>Washout</t>
+  </si>
+  <si>
+    <t>S001310</t>
+  </si>
+  <si>
+    <t>SECOND WASH-OUT</t>
+  </si>
+  <si>
+    <t>Second Wash-Out</t>
+  </si>
+  <si>
+    <t>S001309</t>
+  </si>
+  <si>
+    <t>SECOND TREATMENT</t>
+  </si>
+  <si>
+    <t>Second Treatment</t>
+  </si>
+  <si>
+    <t>S001306</t>
+  </si>
+  <si>
+    <t>SECOND SCREENING</t>
+  </si>
+  <si>
+    <t>Second Screening</t>
+  </si>
+  <si>
+    <t>S001305</t>
+  </si>
+  <si>
+    <t>SECOND RUN-IN</t>
+  </si>
+  <si>
+    <t>Second Run-In</t>
+  </si>
+  <si>
+    <t>S001304</t>
+  </si>
+  <si>
+    <t>SECOND FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>Second Follow-Up</t>
+  </si>
+  <si>
+    <t>S001301</t>
+  </si>
+  <si>
+    <t>SAFETY FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>Safety Follow-up</t>
+  </si>
+  <si>
+    <t>S001300</t>
+  </si>
+  <si>
+    <t>PRIMARY SERIES</t>
+  </si>
+  <si>
+    <t>Primary Series</t>
+  </si>
+  <si>
+    <t>S001298</t>
+  </si>
+  <si>
+    <t>IMMUNOGENICITY FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>Immunogenicity Follow-up</t>
+  </si>
+  <si>
+    <t>S001297</t>
+  </si>
+  <si>
+    <t>FIRST WASH-OUT</t>
+  </si>
+  <si>
+    <t>First Wash-Out</t>
+  </si>
+  <si>
+    <t>S001296</t>
+  </si>
+  <si>
+    <t>FIRST TREATMENT</t>
+  </si>
+  <si>
+    <t>First Treatment</t>
+  </si>
+  <si>
+    <t>S001293</t>
+  </si>
+  <si>
+    <t>FIRST SCREENING</t>
+  </si>
+  <si>
+    <t>First Screening</t>
+  </si>
+  <si>
+    <t>S001292</t>
+  </si>
+  <si>
+    <t>FIRST RUN-IN</t>
+  </si>
+  <si>
+    <t>First Run-In</t>
+  </si>
+  <si>
+    <t>S001291</t>
+  </si>
+  <si>
+    <t>FIRST FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>First Follow-Up</t>
+  </si>
+  <si>
+    <t>S001289</t>
+  </si>
+  <si>
+    <t>COMPLETION</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>S001288</t>
+  </si>
+  <si>
+    <t>BOOSTER PHASE</t>
+  </si>
+  <si>
+    <t>A distinguishable part, a stage in a series of events or in a process of development, e.g. any of the varying aspects or stages in course of a disease; a fraction of a cycle that maintain, extend or increase the immune response.</t>
+  </si>
+  <si>
+    <t>Booster Phase</t>
+  </si>
+  <si>
+    <t>S000161</t>
+  </si>
+  <si>
+    <t>SINGLE BLIND</t>
+  </si>
+  <si>
+    <t>Single Blind</t>
+  </si>
+  <si>
+    <t>S000157</t>
+  </si>
+  <si>
+    <t>EXTENSION PHASE</t>
+  </si>
+  <si>
+    <t>Extension Phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The extension of a distinguishable part, a stage in a series of events or in a process of development, e.g. any of the varying aspects or stages in course of a disease; a fraction of a cycle. </t>
+  </si>
+  <si>
+    <t>S000153</t>
+  </si>
+  <si>
+    <t>DOUBLE BLIND</t>
+  </si>
+  <si>
+    <t>The baseline for the double blind period.</t>
+  </si>
+  <si>
+    <t>Double Blind</t>
   </si>
 </sst>
 </file>
@@ -808,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2673,6 +2952,1030 @@
       </c>
       <c r="Q42" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2712,15 +4015,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -2923,6 +4217,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
@@ -2941,14 +4244,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2965,4 +4260,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E08751-60E3-7B44-8618-8B9D1DD53149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A35FA94-DE20-2049-85C5-72ACE6FF19FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="227">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>Double Blind</t>
+  </si>
+  <si>
+    <t>STUDY_USE</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1110,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1165,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1587,7 +1594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1725,7 +1732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -3200,7 +3207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -3241,7 +3248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -3282,7 +3289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
@@ -3319,8 +3326,11 @@
       <c r="Q51" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -3357,8 +3367,11 @@
       <c r="Q52" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -3396,7 +3409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>133</v>
       </c>
@@ -3434,7 +3447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
@@ -3510,7 +3523,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -3548,7 +3561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>133</v>
       </c>
@@ -3586,7 +3599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -3624,7 +3637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
@@ -3700,7 +3713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -3738,7 +3751,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -4009,12 +4022,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -4217,7 +4224,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4226,24 +4233,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4262,10 +4258,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A35FA94-DE20-2049-85C5-72ACE6FF19FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633AD32-64D4-4749-9741-84B6A0E76CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="228">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -1090,11 +1093,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3:T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1113,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,8 +1171,11 @@
       <c r="S1" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1209,8 +1215,11 @@
       <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1250,8 +1259,11 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1291,8 +1303,11 @@
       <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1332,8 +1347,11 @@
       <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1373,8 +1391,11 @@
       <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1414,8 +1435,11 @@
       <c r="Q7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1452,8 +1476,11 @@
       <c r="Q8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1499,8 +1526,11 @@
       <c r="Q9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1546,8 +1576,11 @@
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1593,8 +1626,11 @@
       <c r="Q11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1640,8 +1676,11 @@
       <c r="Q12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1687,8 +1726,11 @@
       <c r="Q13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1731,8 +1773,11 @@
       <c r="Q14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1775,8 +1820,11 @@
       <c r="Q15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1819,8 +1867,11 @@
       <c r="Q16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1863,8 +1914,11 @@
       <c r="Q17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -1907,8 +1961,11 @@
       <c r="Q18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -1951,8 +2008,11 @@
       <c r="Q19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -1995,8 +2055,11 @@
       <c r="Q20" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -2039,8 +2102,11 @@
       <c r="Q21" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2083,8 +2149,11 @@
       <c r="Q22" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -2127,8 +2196,11 @@
       <c r="Q23" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2168,8 +2240,11 @@
       <c r="Q24" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2212,8 +2287,11 @@
       <c r="Q25" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2256,8 +2334,11 @@
       <c r="Q26" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2300,8 +2381,11 @@
       <c r="Q27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2344,8 +2428,11 @@
       <c r="Q28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2388,8 +2475,11 @@
       <c r="Q29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -2432,8 +2522,11 @@
       <c r="Q30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2476,8 +2569,11 @@
       <c r="Q31" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2520,8 +2616,11 @@
       <c r="Q32" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2564,8 +2663,11 @@
       <c r="Q33" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -2608,8 +2710,11 @@
       <c r="Q34" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -2652,8 +2757,11 @@
       <c r="Q35" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -2696,8 +2804,11 @@
       <c r="Q36" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -2740,8 +2851,11 @@
       <c r="Q37" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2784,8 +2898,11 @@
       <c r="Q38" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>131</v>
       </c>
@@ -2828,8 +2945,11 @@
       <c r="Q39" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>131</v>
       </c>
@@ -2872,8 +2992,11 @@
       <c r="Q40" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>131</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="Q41" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -2960,8 +3086,11 @@
       <c r="Q42" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
@@ -3001,8 +3130,11 @@
       <c r="Q43" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3042,8 +3174,11 @@
       <c r="Q44" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3083,8 +3218,11 @@
       <c r="Q45" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -3124,8 +3262,11 @@
       <c r="Q46" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
@@ -3165,8 +3306,11 @@
       <c r="Q47" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
@@ -3206,8 +3350,11 @@
       <c r="Q48" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -3247,8 +3394,11 @@
       <c r="Q49" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -3288,8 +3438,11 @@
       <c r="Q50" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
@@ -3329,8 +3482,11 @@
       <c r="S51" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -3370,8 +3526,11 @@
       <c r="S52" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -3408,8 +3567,11 @@
       <c r="Q53" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>133</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="Q54" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -3484,8 +3649,11 @@
       <c r="Q55" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
@@ -3522,8 +3690,11 @@
       <c r="Q56" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -3560,8 +3731,11 @@
       <c r="Q57" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>133</v>
       </c>
@@ -3598,8 +3772,11 @@
       <c r="Q58" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -3636,8 +3813,11 @@
       <c r="Q59" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
@@ -3674,8 +3854,11 @@
       <c r="Q60" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
@@ -3712,8 +3895,11 @@
       <c r="Q61" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -3750,8 +3936,11 @@
       <c r="Q62" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -3788,8 +3977,11 @@
       <c r="Q63" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -3826,8 +4018,11 @@
       <c r="Q64" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -3867,8 +4062,11 @@
       <c r="Q65" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -3905,8 +4103,11 @@
       <c r="Q66" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
@@ -3949,8 +4150,11 @@
       <c r="Q67" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
@@ -3988,6 +4192,9 @@
         <v>29</v>
       </c>
       <c r="Q68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T68" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4225,18 +4432,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4259,14 +4466,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
@@ -4281,4 +4480,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633AD32-64D4-4749-9741-84B6A0E76CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD320B24-ED23-564E-A87B-7C0FC2A5A3D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="226">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -711,12 +711,6 @@
   </si>
   <si>
     <t>Double Blind</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -1093,11 +1087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3:T68"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1107,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,14 +1162,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1215,11 +1203,8 @@
       <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1259,11 +1244,8 @@
       <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1303,11 +1285,8 @@
       <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1347,11 +1326,8 @@
       <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1391,11 +1367,8 @@
       <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1435,11 +1408,8 @@
       <c r="Q7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1476,11 +1446,8 @@
       <c r="Q8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1526,11 +1493,8 @@
       <c r="Q9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1576,11 +1540,8 @@
       <c r="Q10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1626,11 +1587,8 @@
       <c r="Q11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -1676,11 +1634,8 @@
       <c r="Q12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1726,11 +1681,8 @@
       <c r="Q13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -1773,11 +1725,8 @@
       <c r="Q14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1820,11 +1769,8 @@
       <c r="Q15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1867,11 +1813,8 @@
       <c r="Q16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -1914,11 +1857,8 @@
       <c r="Q17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -1961,11 +1901,8 @@
       <c r="Q18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2008,11 +1945,8 @@
       <c r="Q19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>69</v>
       </c>
@@ -2055,11 +1989,8 @@
       <c r="Q20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -2102,11 +2033,8 @@
       <c r="Q21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2149,11 +2077,8 @@
       <c r="Q22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -2196,11 +2121,8 @@
       <c r="Q23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2240,11 +2162,8 @@
       <c r="Q24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2287,11 +2206,8 @@
       <c r="Q25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -2334,11 +2250,8 @@
       <c r="Q26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2381,11 +2294,8 @@
       <c r="Q27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2428,11 +2338,8 @@
       <c r="Q28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2475,11 +2382,8 @@
       <c r="Q29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -2522,11 +2426,8 @@
       <c r="Q30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2569,11 +2470,8 @@
       <c r="Q31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2616,11 +2514,8 @@
       <c r="Q32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -2663,11 +2558,8 @@
       <c r="Q33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -2710,11 +2602,8 @@
       <c r="Q34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>107</v>
       </c>
@@ -2757,11 +2646,8 @@
       <c r="Q35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -2804,11 +2690,8 @@
       <c r="Q36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -2851,11 +2734,8 @@
       <c r="Q37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2898,11 +2778,8 @@
       <c r="Q38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>131</v>
       </c>
@@ -2945,11 +2822,8 @@
       <c r="Q39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>131</v>
       </c>
@@ -2992,11 +2866,8 @@
       <c r="Q40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>131</v>
       </c>
@@ -3039,11 +2910,8 @@
       <c r="Q41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>131</v>
       </c>
@@ -3086,11 +2954,8 @@
       <c r="Q42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
@@ -3130,11 +2995,8 @@
       <c r="Q43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3174,11 +3036,8 @@
       <c r="Q44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3218,11 +3077,8 @@
       <c r="Q45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>133</v>
       </c>
@@ -3262,11 +3118,8 @@
       <c r="Q46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
@@ -3306,11 +3159,8 @@
       <c r="Q47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>133</v>
       </c>
@@ -3350,11 +3200,8 @@
       <c r="Q48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>133</v>
       </c>
@@ -3394,11 +3241,8 @@
       <c r="Q49" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -3438,11 +3282,8 @@
       <c r="Q50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
@@ -3479,14 +3320,8 @@
       <c r="Q51" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>133</v>
       </c>
@@ -3523,14 +3358,8 @@
       <c r="Q52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>133</v>
       </c>
@@ -3567,11 +3396,8 @@
       <c r="Q53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>133</v>
       </c>
@@ -3608,11 +3434,8 @@
       <c r="Q54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
@@ -3649,11 +3472,8 @@
       <c r="Q55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
@@ -3690,11 +3510,8 @@
       <c r="Q56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -3731,11 +3548,8 @@
       <c r="Q57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>133</v>
       </c>
@@ -3772,11 +3586,8 @@
       <c r="Q58" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -3813,11 +3624,8 @@
       <c r="Q59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
@@ -3854,11 +3662,8 @@
       <c r="Q60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
@@ -3895,11 +3700,8 @@
       <c r="Q61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -3936,11 +3738,8 @@
       <c r="Q62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -3977,11 +3776,8 @@
       <c r="Q63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -4018,11 +3814,8 @@
       <c r="Q64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -4062,11 +3855,8 @@
       <c r="Q65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -4103,11 +3893,8 @@
       <c r="Q66" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
@@ -4150,11 +3937,8 @@
       <c r="Q67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
@@ -4192,9 +3976,6 @@
         <v>29</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T68" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4229,6 +4010,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -4431,36 +4227,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4483,9 +4253,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>